--- a/SeaWorld/Document/梦幻渔场游客名称.xlsx
+++ b/SeaWorld/Document/梦幻渔场游客名称.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游客称号" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -254,6 +254,118 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,13 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -281,103 +386,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -392,14 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,97 +410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,85 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,30 +601,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,15 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,8 +637,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -709,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,141 +721,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -930,7 +927,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1350,7 +1347,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1392,25 +1389,25 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
       <c r="H2">
@@ -1418,28 +1415,28 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
         <f>B2</f>
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="0">D2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="1">F2</f>
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>20</v>
       </c>
       <c r="H3">
@@ -1448,28 +1445,28 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B11" si="2">B3</f>
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>30</v>
       </c>
       <c r="H4">
@@ -1478,28 +1475,28 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>40</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>40</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>40</v>
       </c>
       <c r="H5">
@@ -1508,28 +1505,28 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>50</v>
       </c>
       <c r="H6">
@@ -1538,28 +1535,28 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>60</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>60</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>60</v>
       </c>
       <c r="H7">
@@ -1568,28 +1565,28 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>70</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>70</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>70</v>
       </c>
       <c r="H8">
@@ -1598,28 +1595,28 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>80</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>80</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>80</v>
       </c>
       <c r="H9">
@@ -1628,28 +1625,28 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>90</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>90</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>90</v>
       </c>
       <c r="H10">
@@ -1658,21 +1655,21 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>100</v>
       </c>
       <c r="H11">
